--- a/resume/项目经历.xlsx
+++ b/resume/项目经历.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>硬件平台</t>
     <rPh sb="0" eb="1">
@@ -172,15 +172,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The RX family of 32-bit microcontrollers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>H8SX/1600</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32-bit CISC H8SX CPU core</t>
   </si>
   <si>
     <t>H8SX2600-&gt;RX630</t>
@@ -204,62 +197,405 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>但是总线是16位的每次写入2个字节</t>
-    <rPh sb="0" eb="1">
-      <t>dan shi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zong xian</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>de</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>mei ci</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>xie ru</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ge zi jie</t>
-    </rPh>
+    <t>PIntPRG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P_exec_code                                </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>但是新的CPU命令有一个字节，所以产生了NOP</t>
+    <t>section</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PResetPRG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIXEDVECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ffffffd0  ffffffff               30   4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ffff876a  ffff88ef           186   1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ffff8000  ffff8033          34   4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000810  00000813    4   4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIXEDVECT下的fffffffc~ffffffff第一个程序为PowerON_Reset_PC</t>
+    <rPh sb="9" eb="10">
+      <t>xia</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>de</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>di yi ge</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>cheng xu</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定向量表</t>
     <rPh sb="0" eb="1">
-      <t>dan shi</t>
+      <t>gu ding</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>xin de</t>
+      <t>xiang liang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fffffffc~ffffffff</t>
+  </si>
+  <si>
+    <t>&gt;PowerON_Reset_PC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;Init funcs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;while(1){run()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GDI-&gt;OPENGL ES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windows API -&gt; Posix API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32-bit CISC H8SX CPU core</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The RX family of 32-bit microcontrollers RISC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX因为是16位的地址总线，当奇数字节指令写入内存时，增加NOP指令</t>
+    <rPh sb="2" eb="3">
+      <t>yin wi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi</t>
     </rPh>
     <rPh sb="7" eb="8">
-      <t>ming ling</t>
+      <t>wei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
     </rPh>
     <rPh sb="9" eb="10">
-      <t>you</t>
+      <t>di zhi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zong xian</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>dang</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ji shu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zi jie</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>zhi ling</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>xie ru</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>nei cun</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>zeng jia</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>zhi ling</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H8SX虽然也是16位地址总线，但没有奇数字节指令，因此不产生NOP</t>
+    <rPh sb="4" eb="5">
+      <t>sui ran</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ye shi</t>
     </rPh>
     <rPh sb="10" eb="11">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>di zhi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zong xian</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>dan</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>mei you</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ji shu</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>zi jie</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>zhi ling</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>yin ci</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>bu chan sheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对内存的读写都是以WORD为单位</t>
+    <rPh sb="0" eb="1">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>nei cun</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>du xie</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dou shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>dan wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改之后先将带写入数据缓存到数组中，再统一写入RAM中</t>
+    <rPh sb="0" eb="1">
+      <t>xiu gai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi hou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jiang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xie ru</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shu ju</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>huan c</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shu zu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>tong yi</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>xie ru</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOP削减，原来每次都是直接写入RAM中</t>
+    <rPh sb="3" eb="4">
+      <t>xue jian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yuan lai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mei ci</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>dou shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhi jie</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>xie ru</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void ilc_WriteExecByte(uInt8 byDataL, uInt8 byDataH)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存写入分为指定Offset写入，和当前写指针地址写入</t>
+    <rPh sb="0" eb="1">
+      <t>nei cun</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xie ru</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fen wei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi ding</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>xie ru</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>he</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>dang qian</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>di zhi</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>xie ru</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bPreExecCode一个字节来保存前一子节。</t>
+    <rPh sb="12" eb="13">
       <t>yi ge</t>
     </rPh>
+    <rPh sb="14" eb="15">
+      <t>zi jie</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>lai</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>bao cun</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>qian yi</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>zi jie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offset写入，通常是用于填写跳转指令的</t>
+    <rPh sb="6" eb="7">
+      <t>xie ru</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tong chang</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>shi</t>
+    </rPh>
     <rPh sb="12" eb="13">
-      <t>zi jie</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>suo yi</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>chan sheng</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>le</t>
-    </rPh>
+      <t>yong yu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>tian xie</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>tiao zhuan</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>zhi ling</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>de</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMD1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMD2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMD3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void ilc_OffsetWriteExecByte(uInt8 byDataL, uInt8 byDataH, uInt32 ulWriteOffset)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ilc_OffsetWriteExecByte(BNE CMD, len(CMD(1~n)))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BNE(ilc_ulWriteOffset+2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4159,7 +4495,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>ROM</a:t>
+            <a:t>RAM</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -5423,10 +5759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S91"/>
+  <dimension ref="A1:S106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6276,7 +6612,7 @@
         <v>15</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -6301,7 +6637,7 @@
         <v>16</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -6323,10 +6659,10 @@
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -6348,10 +6684,10 @@
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -6374,7 +6710,7 @@
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -6397,7 +6733,7 @@
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -6419,7 +6755,9 @@
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -6440,7 +6778,9 @@
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -6461,7 +6801,9 @@
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -6482,7 +6824,9 @@
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -6503,7 +6847,9 @@
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -6524,7 +6870,9 @@
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -6545,7 +6893,9 @@
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
+      <c r="D52" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -6566,7 +6916,9 @@
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
+      <c r="D53" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -6587,7 +6939,9 @@
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+      <c r="D54" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -6608,7 +6962,9 @@
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="D55" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -6629,7 +6985,9 @@
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -6671,7 +7029,9 @@
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+      <c r="D58" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -6692,7 +7052,9 @@
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
+      <c r="D59" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -6713,7 +7075,6 @@
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -6733,7 +7094,9 @@
     <row r="61" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
+      <c r="C61" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -6754,8 +7117,12 @@
     <row r="62" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
+      <c r="C62" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -6775,8 +7142,12 @@
     <row r="63" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
+      <c r="C63" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -6796,8 +7167,12 @@
     <row r="64" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
+      <c r="C64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -6817,10 +7192,16 @@
     <row r="65" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
+      <c r="C65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
+      <c r="F65" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -6838,8 +7219,6 @@
     <row r="66" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -6859,8 +7238,9 @@
     <row r="67" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
+      <c r="C67" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -6883,7 +7263,9 @@
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
+      <c r="F68" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -6904,8 +7286,9 @@
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
+      <c r="F69" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
@@ -6925,9 +7308,10 @@
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
+      <c r="F70" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -6946,9 +7330,10 @@
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
+      <c r="F71" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -6967,7 +7352,9 @@
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
+      <c r="F72" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -7028,7 +7415,9 @@
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
+      <c r="D75" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -7049,7 +7438,9 @@
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
+      <c r="D76" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -7381,6 +7772,321 @@
       <c r="R91" s="1"/>
       <c r="S91" s="1"/>
     </row>
+    <row r="92" spans="1:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+    </row>
+    <row r="93" spans="1:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+    </row>
+    <row r="94" spans="1:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+    </row>
+    <row r="95" spans="1:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+    </row>
+    <row r="96" spans="1:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+    </row>
+    <row r="97" spans="1:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+    </row>
+    <row r="98" spans="1:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+    </row>
+    <row r="99" spans="1:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+    </row>
+    <row r="100" spans="1:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+    </row>
+    <row r="101" spans="1:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+    </row>
+    <row r="102" spans="1:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+    </row>
+    <row r="103" spans="1:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
+      <c r="Q103" s="1"/>
+      <c r="R103" s="1"/>
+      <c r="S103" s="1"/>
+    </row>
+    <row r="104" spans="1:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
+      <c r="Q104" s="1"/>
+      <c r="R104" s="1"/>
+      <c r="S104" s="1"/>
+    </row>
+    <row r="105" spans="1:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
+      <c r="Q105" s="1"/>
+      <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
+    </row>
+    <row r="106" spans="1:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+      <c r="Q106" s="1"/>
+      <c r="R106" s="1"/>
+      <c r="S106" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resume/项目经历.xlsx
+++ b/resume/项目经历.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16700" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>硬件平台</t>
     <rPh sb="0" eb="1">
@@ -596,6 +596,258 @@
   </si>
   <si>
     <t>BNE(ilc_ulWriteOffset+2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内核编译与裁剪</t>
+    <rPh sb="0" eb="1">
+      <t>nei he</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bian yi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cai jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ceph集群部署、维护、troubleshooting</t>
+    <rPh sb="4" eb="5">
+      <t>ji qun</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bu shu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wei hu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPMI电源管理</t>
+    <rPh sb="4" eb="5">
+      <t>dian yuan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>guan li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ceph集群性能测试与提升</t>
+    <rPh sb="4" eb="5">
+      <t>ji qun</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xing neng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ce shi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ti s</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pg、pgp的调整</t>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>tiao zheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于linux log的解析</t>
+    <rPh sb="0" eb="1">
+      <t>guan yu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jie xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/var/log/ceph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/var/log/dmesg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚本编写、自动化运维工具ansible</t>
+    <rPh sb="0" eb="1">
+      <t>jiao ben</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bian xie</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zi dong hua</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yun wei</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gong ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CrushMap的调整</t>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tiao zheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬件选型：每个ceph-osd需要1G内存</t>
+    <rPh sb="0" eb="1">
+      <t>ying jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xuan xing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mei ge</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>xu yao</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>nei cun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万兆网络分离集群网络和外部网络</t>
+    <rPh sb="0" eb="1">
+      <t>wan zhao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wang luo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fen li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ji qun</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wang luo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>he</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wai bu wang luo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fio测试、iperf测试、dd测试、osd perf测试</t>
+    <rPh sb="3" eb="4">
+      <t>ce shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ce shi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ce shi</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ce shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ceph-mon和ceph-mds占用资源比较大</t>
+    <rPh sb="8" eb="9">
+      <t>he</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zhan yong</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>zi yuan</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>bi jiao</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>da</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python代码解析、调试、</t>
+    <rPh sb="6" eb="7">
+      <t>dai ma</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jie xi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>tiao shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssd作为journal、作为高速pool、作为tier pool（主要配合纠删码，tier层是多副本）</t>
+    <rPh sb="3" eb="4">
+      <t>zuo wei</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zuo wei</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>gao su</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>zuo wei</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>zhu yao</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>pei he</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>jiu shan ma</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ceng</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>duo fu ben</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Makefile、CrossCompile、Cmake、gcc、gdb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vim、ssh、git、tftp、ansible、ntp、bootloader</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -672,13 +924,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>68385</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>241906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>146539</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>67434</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3480,13 +3732,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>24189</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>495903</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>12095</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3560,13 +3812,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>483204</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>12701</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>332155</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>36285</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3629,13 +3881,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>133046</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>60476</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>290284</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>84666</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3690,13 +3942,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>483808</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>96762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>469678</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>96762</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3738,13 +3990,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>145141</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>96761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>302379</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>120951</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3795,13 +4047,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>701522</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>72571</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>36283</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>96761</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3852,13 +4104,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>290284</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>68384</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>107461</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>72571</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3901,13 +4153,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>120345</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>121559</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>277583</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>145749</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3966,13 +4218,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>116717</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>71360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>673098</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>59266</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4030,13 +4282,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>96759</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>72572</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>72570</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>72572</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4077,13 +4329,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>592664</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>72571</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>483807</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>36287</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4139,13 +4391,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>133049</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>60476</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>290287</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>84666</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4200,13 +4452,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>610202</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>96762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>616857</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>121559</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4249,13 +4501,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>701525</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>84666</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>592667</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>48382</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4311,13 +4563,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>169334</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>253999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>423333</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>38705</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4379,13 +4631,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>265990</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>168585</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>400539</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>202300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4449,13 +4701,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>152632</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>6524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>247677</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>168584</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4507,13 +4759,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>609186</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>145749</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>610376</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>6524</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4558,13 +4810,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>275003</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>11239</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>432347</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>89911</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4618,13 +4870,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>141432</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>286242</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4666,13 +4918,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>152670</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>297480</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4714,13 +4966,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>141431</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>5965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>286241</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>5965</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4762,13 +5014,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>152669</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>297479</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4810,13 +5062,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>141432</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>5965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>286242</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>5965</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4858,13 +5110,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>152670</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>297480</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4906,13 +5158,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>141431</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>5965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>286241</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>5965</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4954,13 +5206,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>152669</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>297479</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5002,13 +5254,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>141432</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>286242</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5050,13 +5302,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>152670</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>297480</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5098,13 +5350,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>141431</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>286241</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5146,13 +5398,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>152669</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>297479</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5194,13 +5446,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>152670</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>297480</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5242,13 +5494,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>195379</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>339964</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5443,13 +5695,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>97692</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>517770</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>175846</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5759,10 +6011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S106"/>
+  <dimension ref="A1:S120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="K58" sqref="K58"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6170,7 +6422,9 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -6191,7 +6445,9 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -6261,7 +6517,9 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -6282,7 +6540,9 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -6303,7 +6563,9 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -6324,7 +6586,9 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -6345,7 +6609,9 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -6366,7 +6632,9 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -6387,7 +6655,9 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -6408,7 +6678,9 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -6429,7 +6701,9 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -6450,7 +6724,9 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -6471,7 +6747,9 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -6491,11 +6769,9 @@
     <row r="35" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -6518,7 +6794,7 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -6541,7 +6817,7 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -6564,7 +6840,7 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -6587,7 +6863,7 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -6608,12 +6884,8 @@
     <row r="40" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -6633,12 +6905,7 @@
     <row r="41" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="C41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -6658,12 +6925,7 @@
     <row r="42" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="C42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -6683,12 +6945,8 @@
     <row r="43" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -6709,9 +6967,7 @@
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -6731,10 +6987,10 @@
     <row r="45" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1" t="s">
-        <v>42</v>
+      <c r="C45" s="1" t="s">
+        <v>9</v>
       </c>
+      <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -6755,9 +7011,7 @@
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -6778,9 +7032,7 @@
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -6801,9 +7053,7 @@
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -6825,7 +7075,7 @@
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -6846,9 +7096,11 @@
     <row r="50" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
+      <c r="C50" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D50" s="1" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -6869,9 +7121,11 @@
     <row r="51" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
+      <c r="C51" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D51" s="1" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -6892,9 +7146,11 @@
     <row r="52" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D52" s="1" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -6915,9 +7171,11 @@
     <row r="53" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
+      <c r="C53" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="D53" s="1" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -6940,7 +7198,7 @@
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -6963,7 +7221,7 @@
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -6986,7 +7244,7 @@
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -7008,7 +7266,9 @@
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -7030,7 +7290,7 @@
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -7053,7 +7313,7 @@
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -7075,6 +7335,9 @@
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
+      <c r="D60" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -7094,10 +7357,10 @@
     <row r="61" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
-      <c r="C61" s="1" t="s">
-        <v>23</v>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1" t="s">
+        <v>45</v>
       </c>
-      <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -7117,11 +7380,9 @@
     <row r="62" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
-      <c r="C62" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -7142,11 +7403,9 @@
     <row r="63" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
-      <c r="C63" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="C63" s="1"/>
       <c r="D63" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -7167,11 +7426,9 @@
     <row r="64" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
-      <c r="C64" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="C64" s="1"/>
       <c r="D64" s="1" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -7192,16 +7449,12 @@
     <row r="65" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
-      <c r="C65" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="E65" s="1"/>
-      <c r="F65" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -7219,6 +7472,10 @@
     <row r="66" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -7238,8 +7495,9 @@
     <row r="67" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
-      <c r="C67" s="1" t="s">
-        <v>30</v>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -7261,11 +7519,11 @@
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
+      <c r="D68" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="E68" s="1"/>
-      <c r="F68" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -7284,11 +7542,12 @@
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
+      <c r="D69" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="E69" s="1"/>
-      <c r="F69" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
@@ -7306,12 +7565,13 @@
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
+      <c r="D70" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="E70" s="1"/>
-      <c r="F70" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="F70" s="1"/>
       <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -7327,13 +7587,14 @@
     <row r="71" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
+      <c r="C71" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="F71" s="1"/>
       <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -7349,12 +7610,14 @@
     <row r="72" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
+      <c r="C72" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="E72" s="1"/>
-      <c r="F72" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -7372,8 +7635,12 @@
     <row r="73" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
+      <c r="C73" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
@@ -7393,8 +7660,9 @@
     <row r="74" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
+      <c r="C74" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -7414,12 +7682,14 @@
     <row r="75" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1" t="s">
-        <v>37</v>
+      <c r="C75" s="1" t="s">
+        <v>25</v>
       </c>
+      <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
+      <c r="F75" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -7437,9 +7707,8 @@
     <row r="76" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
       <c r="D76" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -7460,8 +7729,12 @@
     <row r="77" spans="1:19" ht="21" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
+      <c r="C77" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
@@ -7482,9 +7755,13 @@
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
+      <c r="D78" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
+      <c r="F78" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -7503,10 +7780,13 @@
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
+      <c r="D79" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
+      <c r="F79" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
@@ -7524,11 +7804,11 @@
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
+      <c r="F80" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
@@ -7545,11 +7825,11 @@
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
+      <c r="F81" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
@@ -7568,7 +7848,9 @@
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
+      <c r="F82" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -7713,7 +7995,9 @@
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
+      <c r="D89" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -7734,7 +8018,9 @@
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
+      <c r="D90" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -8087,6 +8373,228 @@
       <c r="R106" s="1"/>
       <c r="S106" s="1"/>
     </row>
+    <row r="107" spans="1:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
+      <c r="Q107" s="1"/>
+      <c r="R107" s="1"/>
+      <c r="S107" s="1"/>
+    </row>
+    <row r="108" spans="1:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="1"/>
+      <c r="S108" s="1"/>
+    </row>
+    <row r="109" spans="1:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="1"/>
+      <c r="S109" s="1"/>
+    </row>
+    <row r="110" spans="1:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
+      <c r="Q110" s="1"/>
+      <c r="R110" s="1"/>
+      <c r="S110" s="1"/>
+    </row>
+    <row r="111" spans="1:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="1"/>
+      <c r="Q111" s="1"/>
+      <c r="R111" s="1"/>
+      <c r="S111" s="1"/>
+    </row>
+    <row r="112" spans="1:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="1"/>
+      <c r="Q112" s="1"/>
+      <c r="R112" s="1"/>
+      <c r="S112" s="1"/>
+    </row>
+    <row r="113" spans="1:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+      <c r="O113" s="1"/>
+      <c r="P113" s="1"/>
+      <c r="Q113" s="1"/>
+      <c r="R113" s="1"/>
+      <c r="S113" s="1"/>
+    </row>
+    <row r="114" spans="1:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+      <c r="O114" s="1"/>
+      <c r="P114" s="1"/>
+      <c r="Q114" s="1"/>
+      <c r="R114" s="1"/>
+      <c r="S114" s="1"/>
+    </row>
+    <row r="115" spans="1:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+      <c r="O115" s="1"/>
+      <c r="P115" s="1"/>
+      <c r="Q115" s="1"/>
+      <c r="R115" s="1"/>
+      <c r="S115" s="1"/>
+    </row>
+    <row r="116" spans="1:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+      <c r="O116" s="1"/>
+      <c r="P116" s="1"/>
+      <c r="Q116" s="1"/>
+      <c r="R116" s="1"/>
+      <c r="S116" s="1"/>
+    </row>
+    <row r="117" spans="1:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="D117" s="1"/>
+    </row>
+    <row r="118" spans="1:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="D118" s="1"/>
+    </row>
+    <row r="119" spans="1:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="D119" s="1"/>
+    </row>
+    <row r="120" spans="1:19" ht="21" x14ac:dyDescent="0.25">
+      <c r="D120" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resume/项目经历.xlsx
+++ b/resume/项目经历.xlsx
@@ -88,10 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ubuntu 14.04 armhf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>支持的命令</t>
     <rPh sb="0" eb="1">
       <t>zhi chi</t>
@@ -173,10 +169,6 @@
   </si>
   <si>
     <t>H8SX/1600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H8SX2600-&gt;RX630</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -295,10 +287,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The RX family of 32-bit microcontrollers RISC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RX因为是16位的地址总线，当奇数字节指令写入内存时，增加NOP指令</t>
     <rPh sb="2" eb="3">
       <t>yin wi</t>
@@ -848,6 +836,18 @@
   </si>
   <si>
     <t>vim、ssh、git、tftp、ansible、ntp、bootloader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ubuntu 14.04 armhf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H8SX2600-&gt;RX630</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The RX family of 32-bit microcontrollers RISC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5745,6 +5745,67 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="文本框 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7073900" y="5562600"/>
+          <a:ext cx="6781800" cy="3302000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6013,8 +6074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6305,7 +6366,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -6423,7 +6484,7 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -6446,7 +6507,7 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -6518,7 +6579,7 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -6541,7 +6602,7 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -6564,7 +6625,7 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -6587,7 +6648,7 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -6610,7 +6671,7 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -6633,7 +6694,7 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -6656,7 +6717,7 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -6679,7 +6740,7 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -6702,7 +6763,7 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -6725,7 +6786,7 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -6748,7 +6809,7 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -6771,7 +6832,7 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -6794,7 +6855,7 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -6817,7 +6878,7 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -6840,7 +6901,7 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -6863,7 +6924,7 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -6988,7 +7049,7 @@
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -7075,7 +7136,7 @@
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -7097,10 +7158,10 @@
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -7122,10 +7183,10 @@
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -7147,10 +7208,10 @@
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -7172,10 +7233,10 @@
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -7198,7 +7259,7 @@
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -7221,7 +7282,7 @@
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -7244,7 +7305,7 @@
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -7267,7 +7328,7 @@
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -7290,7 +7351,7 @@
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -7313,7 +7374,7 @@
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -7336,7 +7397,7 @@
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -7359,7 +7420,7 @@
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -7382,7 +7443,7 @@
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -7405,7 +7466,7 @@
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -7428,7 +7489,7 @@
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -7451,7 +7512,7 @@
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -7474,7 +7535,7 @@
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -7497,7 +7558,7 @@
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -7520,7 +7581,7 @@
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -7543,7 +7604,7 @@
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -7566,7 +7627,7 @@
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -7588,7 +7649,7 @@
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -7611,10 +7672,10 @@
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -7636,10 +7697,10 @@
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -7661,7 +7722,7 @@
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -7683,12 +7744,12 @@
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
@@ -7708,7 +7769,7 @@
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="D76" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -7730,10 +7791,10 @@
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -7756,11 +7817,11 @@
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
@@ -7781,11 +7842,11 @@
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -7806,7 +7867,7 @@
       <c r="C80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G80" s="1"/>
       <c r="I80" s="1"/>
@@ -7827,7 +7888,7 @@
       <c r="C81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G81" s="1"/>
       <c r="I81" s="1"/>
@@ -7849,7 +7910,7 @@
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -7996,7 +8057,7 @@
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
@@ -8019,7 +8080,7 @@
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
